--- a/biology/Biochimie/DsRed/DsRed.xlsx
+++ b/biology/Biochimie/DsRed/DsRed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La DsRed est une protéine tétramérique ayant la propriété d'émettre une fluorescence de couleur rouge. Issue d'un corail (Discosoma), cette protéine est intrinsèquement fluorescente. Son gène peut être fusionné in-vitro au gène d'une protéine que l'on souhaite étudier. Le gène recombinant est ensuite réintroduit dans des cellules ou un embryon, qui va alors synthétiser la protéine de fusion, alors fluorescente. On pourra alors l'observer à l'aide d'un microscope à fluorescence, par exemple. Cette méthode permet d'étudier les protéines dans leur environnement naturel : la cellule vivante.
@@ -488,7 +500,7 @@
 Il existe maintenant différents variants de la DsRed qui ont été obtenus en modifiant celle-ci par ingénierie génétique. Ces étapes de mutation ont permis d'obtenir des formes dimériques, monomériques, d'augmenter la brillance ou de changer la gamme de longueur d'onde concernées par les spectres d'excitation et d'émission.
 Variants obtenus par mutagenèse :
 dimer2 : variant dimérique
-mRFP1 : variant monomérique[1], maturation lente
+mRFP1 : variant monomérique, maturation lente
 dTomato : variant dimérique
 tdTomato : variant tétramérique
 mOrange : variant monomérique, fluorescence orange
